--- a/data/signup_output.xlsx
+++ b/data/signup_output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45608.7538920138</v>
+        <v>45609.01060647764</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45608.75395716143</v>
+        <v>45609.01067687717</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
@@ -596,7 +596,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45608.75402240136</v>
+        <v>45609.01074472757</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45608.75410324074</v>
+        <v>45609.01082096399</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45608.75418402076</v>
+        <v>45609.01089549543</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45608.7542477744</v>
+        <v>45609.01095992544</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -793,6 +793,96 @@
       <c r="K7" t="inlineStr">
         <is>
           <t>phone: Please fill out this field.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45609.0110220615</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Phan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Văn Tài</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>815401505</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>123</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Signup Fail</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Signup Fail</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>country: Please select an item in the list.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45609.01108483505</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trần Đình </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mạnh</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>123</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>abc@gmail.com</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>123</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Signup Fail</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Signup Fail</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>country: Please select an item in the list.</t>
         </is>
       </c>
     </row>
